--- a/BPS_FH_Dataset/9/phrases.xlsx
+++ b/BPS_FH_Dataset/9/phrases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\9 x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\9\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4A6ED9-DEE9-4EB4-8859-D439D635DB42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -245,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -607,19 +608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -636,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -653,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -670,9 +671,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>48.5</v>
@@ -687,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>48</v>
       </c>
@@ -704,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>64</v>
       </c>
@@ -721,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -738,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>86</v>
       </c>
@@ -755,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>102</v>
       </c>
@@ -772,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>118</v>
       </c>
@@ -789,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>134</v>
       </c>
@@ -806,7 +807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>151</v>
       </c>
@@ -823,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>167</v>
       </c>
@@ -840,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>181</v>
       </c>
@@ -857,7 +858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>189</v>
       </c>
@@ -874,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>197</v>
       </c>
@@ -891,7 +892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>204</v>
       </c>
@@ -908,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>212</v>
       </c>
@@ -925,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>224</v>
       </c>
@@ -942,7 +943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>240</v>
       </c>
@@ -959,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>256</v>
       </c>
@@ -976,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>272</v>
       </c>
@@ -993,9 +994,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B23" s="1">
         <v>288.5</v>
@@ -1010,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>288</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>304</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>312</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>326</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>342</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>358</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>374</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>391</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>407</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>421</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>429</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>437</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>444</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>452</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>464</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>480</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>496</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>507</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>514.5</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>523</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>539</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>547</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>552</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>560</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>568</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>576</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>584</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>592</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>600</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>616</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>632</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>640</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>648</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>656</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>664</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>672</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>690</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>706</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>722</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>738</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>755</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>771</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>785</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>793</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>801</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>808</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>816</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>828</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>856</v>
       </c>
